--- a/outputs-GTDB-r202/o__Campylobacterales.xlsx
+++ b/outputs-GTDB-r202/o__Campylobacterales.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="o__Campylobacterales_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,109 +435,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-f__Arcobacteraceae</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-f__CACVAW01</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-f__Campylobacteraceae</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-f__Helicobacteraceae</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-f__Hydrogenimonadaceae</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-f__JAABSR01</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-f__JAADDG01</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8-f__JAADDL01</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9-f__JACAEZ01</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10-f__Nitratiruptoraceae</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11-f__QNZT01</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12-f__SZUA-545</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>13-f__Sulfurimonadaceae</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>14-f__Sulfurospirillaceae</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>15-f__Sulfurovaceae</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>16-f__Thiovulaceae</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>17-f__UBA1877</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>18-f__UBA6016</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>RUG537.fasta</t>
         </is>
@@ -607,7 +606,15 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>f__Campylobacteraceae</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>f__Campylobacteraceae</t>
         </is>
